--- a/docs/nephronexus/Single Cell.xlsx
+++ b/docs/nephronexus/Single Cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\nephronexus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EF17A9-0848-4880-9333-9C6256DE6AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F806C1-2668-4CE6-AA00-44375206EB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D1BE0D7C-B19F-413D-95F4-F122FDF32BA4}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,17 +288,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,15 +641,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AE5F9-970A-42F9-91C0-60A8C0AAC892}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="70.7109375" defaultRowHeight="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="252.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -665,7 +671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -676,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -687,159 +693,135 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:3" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:3" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="8" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="252.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="9" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="10" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="11" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+    <row r="12" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+    </row>
+    <row r="13" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="14" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+    <row r="16" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+  <mergeCells count="6">
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FE8777F4-D886-4CDF-8BA0-627818FF8B05}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{C28642BA-E94A-4783-806F-F8C49DAA69F6}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{47429DA0-8B84-41F2-9076-B451FF803918}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{68BC448F-420A-4025-9D1D-0A2B6AFDC7F3}"/>
-    <hyperlink ref="C13" r:id="rId5" xr:uid="{C8E3ED48-E706-485C-9E91-C10CF8E80A27}"/>
-    <hyperlink ref="C14" r:id="rId6" xr:uid="{FE376D4A-8FAF-4F8D-B70C-662ED911F3B5}"/>
-    <hyperlink ref="C16" r:id="rId7" xr:uid="{2B7259E8-DB54-430C-A2A4-3673A44FCD9B}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{47429DA0-8B84-41F2-9076-B451FF803918}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{68BC448F-420A-4025-9D1D-0A2B6AFDC7F3}"/>
+    <hyperlink ref="C10" r:id="rId4" xr:uid="{C8E3ED48-E706-485C-9E91-C10CF8E80A27}"/>
+    <hyperlink ref="C11" r:id="rId5" xr:uid="{FE376D4A-8FAF-4F8D-B70C-662ED911F3B5}"/>
+    <hyperlink ref="C13" r:id="rId6" xr:uid="{2B7259E8-DB54-430C-A2A4-3673A44FCD9B}"/>
+    <hyperlink ref="C5" r:id="rId7" xr:uid="{C28642BA-E94A-4783-806F-F8C49DAA69F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/nephronexus/Single Cell.xlsx
+++ b/docs/nephronexus/Single Cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eoin\Dropbox\R projects\nephromancer.github.io\nephronexus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F806C1-2668-4CE6-AA00-44375206EB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8EF17A9-0848-4880-9333-9C6256DE6AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D1BE0D7C-B19F-413D-95F4-F122FDF32BA4}"/>
   </bookViews>
@@ -268,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -288,23 +288,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -641,15 +635,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{872AE5F9-970A-42F9-91C0-60A8C0AAC892}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="70.7109375" defaultRowHeight="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="252.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -671,7 +665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="158.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -682,7 +676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -693,135 +687,159 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="221.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="12" spans="1:3" ht="252.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+    <row r="13" spans="1:3" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="14" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="12"/>
-    </row>
-    <row r="13" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="15">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{FE8777F4-D886-4CDF-8BA0-627818FF8B05}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{47429DA0-8B84-41F2-9076-B451FF803918}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{68BC448F-420A-4025-9D1D-0A2B6AFDC7F3}"/>
-    <hyperlink ref="C10" r:id="rId4" xr:uid="{C8E3ED48-E706-485C-9E91-C10CF8E80A27}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{FE376D4A-8FAF-4F8D-B70C-662ED911F3B5}"/>
-    <hyperlink ref="C13" r:id="rId6" xr:uid="{2B7259E8-DB54-430C-A2A4-3673A44FCD9B}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{C28642BA-E94A-4783-806F-F8C49DAA69F6}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{C28642BA-E94A-4783-806F-F8C49DAA69F6}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{47429DA0-8B84-41F2-9076-B451FF803918}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{68BC448F-420A-4025-9D1D-0A2B6AFDC7F3}"/>
+    <hyperlink ref="C13" r:id="rId5" xr:uid="{C8E3ED48-E706-485C-9E91-C10CF8E80A27}"/>
+    <hyperlink ref="C14" r:id="rId6" xr:uid="{FE376D4A-8FAF-4F8D-B70C-662ED911F3B5}"/>
+    <hyperlink ref="C16" r:id="rId7" xr:uid="{2B7259E8-DB54-430C-A2A4-3673A44FCD9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
